--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Cypress\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8B7E8-81E0-4082-9F82-B1E50FBF13B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1C25A3-0308-4429-8A73-C3DB780D7822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>DNI</t>
   </si>
@@ -102,10 +103,52 @@
     <t>POLICLINICA DE GUABITO</t>
   </si>
   <si>
-    <t>ENF-777-109</t>
-  </si>
-  <si>
-    <t>ENF-777-110</t>
+    <t>provincia_nombre</t>
+  </si>
+  <si>
+    <t>[DESCONOCIDO]</t>
+  </si>
+  <si>
+    <t>COCLÉ</t>
+  </si>
+  <si>
+    <t>COLÓN</t>
+  </si>
+  <si>
+    <t>CHIRIQUÍ</t>
+  </si>
+  <si>
+    <t>DARIÉN</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LOS SANTOS</t>
+  </si>
+  <si>
+    <t>PANAMÁ</t>
+  </si>
+  <si>
+    <t>VERAGUAS</t>
+  </si>
+  <si>
+    <t>COMARCA INDÍGENA GUNA YALA</t>
+  </si>
+  <si>
+    <t>COMARCA INDÍGENA EMBERÁ-WOUNAAN</t>
+  </si>
+  <si>
+    <t>COMARCA INDÍGENA NGÄBE-BUGLÉ</t>
+  </si>
+  <si>
+    <t>PANAMÁ OESTE</t>
+  </si>
+  <si>
+    <t>ENF-777-112</t>
+  </si>
+  <si>
+    <t>ENF-777-113</t>
   </si>
 </sst>
 </file>
@@ -447,7 +490,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +553,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -547,7 +590,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -613,5 +656,107 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F4DF8AA-C1DD-4F04-83D5-5E93231EA3B0}">
+          <x14:formula1>
+            <xm:f>Datos!$A$1:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B526294F-37F0-4D08-844F-F73AD0A538DE}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Cypress\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15194F8-96E1-4C8D-9243-D8928E12129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5CFA4-D2F9-404E-A8B9-F71CDD6E1B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>DNI</t>
   </si>
@@ -157,10 +157,16 @@
     <t>Enfermero</t>
   </si>
   <si>
-    <t>PRU-888-011</t>
-  </si>
-  <si>
-    <t>PRU-888-012</t>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>AUT_JF_QA_001</t>
+  </si>
+  <si>
+    <t>AUT_TF_QA_001</t>
+  </si>
+  <si>
+    <t>AUT_TF_QA_002</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
@@ -570,7 +576,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -610,10 +616,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -649,6 +655,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -697,7 +706,6 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -705,9 +713,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{9EFE468D-B21E-40BD-8231-09138226C0F4}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{C57F4C06-F8B3-4536-80A4-17B99ABA9868}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{0C212206-B287-4522-BAD1-D36C3F5B4556}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{C57F4C06-F8B3-4536-80A4-17B99ABA9868}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{9EFE468D-B21E-40BD-8231-09138226C0F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Cypress\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5CFA4-D2F9-404E-A8B9-F71CDD6E1B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF7B39-5D8F-4DC9-B2F7-D791B171130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>DNI</t>
   </si>
@@ -160,13 +160,13 @@
     <t>Raúl</t>
   </si>
   <si>
-    <t>AUT_JF_QA_001</t>
-  </si>
-  <si>
-    <t>AUT_TF_QA_001</t>
-  </si>
-  <si>
-    <t>AUT_TF_QA_002</t>
+    <t>AUT_JF_QA_114</t>
+  </si>
+  <si>
+    <t>AUT_JF_QA_115</t>
+  </si>
+  <si>
+    <t>Hospital Mac</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -637,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
@@ -655,9 +655,6 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>

--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Cypress\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF7B39-5D8F-4DC9-B2F7-D791B171130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD999E81-CA99-49E6-8784-1E5C44E26D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>DNI</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>AUT_JF_QA_115</t>
-  </si>
-  <si>
-    <t>Hospital Mac</t>
   </si>
 </sst>
 </file>
@@ -637,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>

--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Cypress\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSEM\Automatizaci-n\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD999E81-CA99-49E6-8784-1E5C44E26D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81F922-0ED4-45AD-A53D-E185D25E0DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>DNI</t>
   </si>
@@ -34,15 +34,9 @@
     <t>NOMBRE</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
     <t>APELLIDO1</t>
   </si>
   <si>
-    <t>Montero</t>
-  </si>
-  <si>
     <t>FECHANAC</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>prueba@gmail.com</t>
   </si>
   <si>
-    <t>Axel</t>
-  </si>
-  <si>
     <t>Cruz</t>
   </si>
   <si>
@@ -154,16 +145,10 @@
     <t>POLICLINICA DE GUABITO</t>
   </si>
   <si>
-    <t>Enfermero</t>
-  </si>
-  <si>
     <t>Raúl</t>
   </si>
   <si>
-    <t>AUT_JF_QA_114</t>
-  </si>
-  <si>
-    <t>AUT_JF_QA_115</t>
+    <t>AUT_QA_CY_008</t>
   </si>
 </sst>
 </file>
@@ -223,7 +208,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,29 +487,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="34.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,187 +517,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I10" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{C57F4C06-F8B3-4536-80A4-17B99ABA9868}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{0C212206-B287-4522-BAD1-D36C3F5B4556}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{9EFE468D-B21E-40BD-8231-09138226C0F4}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0C212206-B287-4522-BAD1-D36C3F5B4556}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -720,7 +626,7 @@
           <x14:formula1>
             <xm:f>Datos!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
+          <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -736,81 +642,81 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSEM\Automatizaci-n\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81F922-0ED4-45AD-A53D-E185D25E0DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3219397-9579-4FCD-B374-0E12A3BC0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>Raúl</t>
   </si>
   <si>
-    <t>AUT_QA_CY_008</t>
+    <t>AUT_MED_CY_008</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cypress/fixtures/datos2.xlsx
+++ b/cypress/fixtures/datos2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSEM\Automatizaci-n\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Cypress\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3219397-9579-4FCD-B374-0E12A3BC0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38368551-A660-4A1A-8CAF-368683B01B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,26 +490,26 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -607,10 +607,10 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I8" s="1"/>
     </row>
   </sheetData>
@@ -642,79 +642,79 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
